--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Profile</t>
   </si>
@@ -50,7 +50,7 @@
     <t>ObservationInicioCuidadorLE</t>
   </si>
   <si>
-    <t>Observation Inicio Cuidador LE</t>
+    <t>Observation Iniciar Cuidador LE</t>
   </si>
   <si>
     <t/>
@@ -68,10 +68,19 @@
     <t>optional</t>
   </si>
   <si>
+    <t>ObservationInicioDiscapacidadLE</t>
+  </si>
+  <si>
+    <t>Observation Inicio Discapacidad LE</t>
+  </si>
+  <si>
+    <t>LOINC#75326-9</t>
+  </si>
+  <si>
     <t>ObservationInicioIndiceComorbilidadLE</t>
   </si>
   <si>
-    <t>Observation Inicio Indice Comorbilidad LE</t>
+    <t>Observation Iniciar Indice Comorbilidad LE</t>
   </si>
   <si>
     <t>Observation Category Codes#vital-signs</t>
@@ -211,7 +220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -295,16 +304,16 @@
         <v>19</v>
       </c>
       <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>13</v>
-      </c>
       <c r="F3" t="s" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>15</v>
@@ -319,6 +328,41 @@
         <v>13</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Profile</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Method</t>
   </si>
   <si>
-    <t>ObservationInicioCuidadorLE</t>
+    <t>ObservationIniciarCuidadorLE</t>
   </si>
   <si>
     <t>Observation Iniciar Cuidador LE</t>
@@ -56,7 +56,10 @@
     <t/>
   </si>
   <si>
-    <t>LOINC#95385-1</t>
+    <t>null#95385-1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
   </si>
   <si>
     <t>dateTime, Period, Timing, instant</t>
@@ -68,16 +71,16 @@
     <t>optional</t>
   </si>
   <si>
-    <t>ObservationInicioDiscapacidadLE</t>
-  </si>
-  <si>
-    <t>Observation Inicio Discapacidad LE</t>
+    <t>ObservationIniciarDiscapacidadLE</t>
+  </si>
+  <si>
+    <t>Observation Iniciar Discapacidad LE</t>
   </si>
   <si>
     <t>LOINC#75326-9</t>
   </si>
   <si>
-    <t>ObservationInicioIndiceComorbilidadLE</t>
+    <t>ObservationIniciarIndiceComorbilidadLE</t>
   </si>
   <si>
     <t>Observation Iniciar Indice Comorbilidad LE</t>
@@ -278,16 +281,16 @@
         <v>14</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>13</v>
@@ -298,31 +301,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>13</v>
@@ -333,13 +336,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>13</v>
@@ -348,16 +351,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>13</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Profile</t>
   </si>
@@ -47,37 +47,52 @@
     <t>Method</t>
   </si>
   <si>
+    <t>ExamenesAnteriores</t>
+  </si>
+  <si>
+    <t>Examenes Anteriores</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
     <t>ObservationIniciarCuidadorLE</t>
   </si>
   <si>
     <t>Observation Iniciar Cuidador LE</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>null#95385-1</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
     <t>dateTime, Period, Timing, instant</t>
   </si>
   <si>
     <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>ObservationIniciarDiscapacidadLE</t>
   </si>
   <si>
-    <t>Observation Iniciar Discapacidad LE</t>
-  </si>
-  <si>
-    <t>LOINC#75326-9</t>
+    <t>Observación Iniciar Discapacidad LE</t>
+  </si>
+  <si>
+    <t>null#101720-1</t>
   </si>
   <si>
     <t>ObservationIniciarIndiceComorbilidadLE</t>
@@ -223,7 +238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -275,7 +290,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>14</v>
@@ -293,10 +308,10 @@
         <v>18</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -307,66 +322,101 @@
         <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
         <v>21</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="H4" t="s" s="2">
         <v>23</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Profile</t>
   </si>
@@ -50,9 +50,6 @@
     <t>ExamenesAnteriores</t>
   </si>
   <si>
-    <t>Examenes Anteriores</t>
-  </si>
-  <si>
     <t>Observation Category Codes#laboratory</t>
   </si>
   <si>
@@ -101,7 +98,7 @@
     <t>Observation Iniciar Indice Comorbilidad LE</t>
   </si>
   <si>
-    <t>Observation Category Codes#vital-signs</t>
+    <t>Observation Category Codes#survey</t>
   </si>
   <si>
     <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSIndicecomorbilidad (required)</t>
@@ -284,139 +281,139 @@
         <v>11</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>13</v>
-      </c>
       <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="I2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="J2" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="F3" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
+      <c r="G3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="F3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>23</v>
-      </c>
       <c r="I3" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="F4" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>15</v>
-      </c>
       <c r="G4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>23</v>
-      </c>
       <c r="I4" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>30</v>
-      </c>
       <c r="G5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>23</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Profile</t>
   </si>
@@ -47,61 +47,67 @@
     <t>Method</t>
   </si>
   <si>
-    <t>ExamenesAnteriores</t>
+    <t>ObservationDiscapacidadLE</t>
+  </si>
+  <si>
+    <t>Discapacidad LE</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#101720-1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>booleanĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>ObservationIndiceComorbilidadLE</t>
+  </si>
+  <si>
+    <t>Indice Comorbilidad LE</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSIndicecomorbilidad (required)</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>ObservationIniciarCuidadorLE</t>
+  </si>
+  <si>
+    <t>Cuidador LE</t>
+  </si>
+  <si>
+    <t>null#95385-1</t>
+  </si>
+  <si>
+    <t>ObservationResultadoExamen</t>
+  </si>
+  <si>
+    <t>Resultado Examen</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+    <t>dateTime</t>
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>ObservationIniciarCuidadorLE</t>
-  </si>
-  <si>
-    <t>Observation Iniciar Cuidador LE</t>
-  </si>
-  <si>
-    <t>null#95385-1</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
-    <t>ObservationIniciarDiscapacidadLE</t>
-  </si>
-  <si>
-    <t>Observación Iniciar Discapacidad LE</t>
-  </si>
-  <si>
-    <t>null#101720-1</t>
-  </si>
-  <si>
-    <t>ObservationIniciarIndiceComorbilidadLE</t>
-  </si>
-  <si>
-    <t>Observation Iniciar Indice Comorbilidad LE</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#survey</t>
-  </si>
-  <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSIndicecomorbilidad (required)</t>
   </si>
 </sst>
 </file>
@@ -281,28 +287,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>13</v>
@@ -313,31 +319,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>13</v>
@@ -348,10 +354,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>13</v>
@@ -360,19 +366,19 @@
         <v>13</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>13</v>
@@ -383,13 +389,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>13</v>
@@ -398,16 +404,16 @@
         <v>13</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>13</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Profile</t>
   </si>
@@ -98,10 +98,13 @@
     <t>ObservationResultadoExamen</t>
   </si>
   <si>
-    <t>Resultado Examen</t>
+    <t>Observation Resultado Examen</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/CodigoExamen (required)</t>
   </si>
   <si>
     <t>dateTime</t>
@@ -404,13 +407,13 @@
         <v>13</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Profile</t>
   </si>
@@ -47,28 +47,40 @@
     <t>Method</t>
   </si>
   <si>
+    <t>ObservationAnamnesisLE</t>
+  </si>
+  <si>
+    <t>Observation Anamnesis LE</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#108217004</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
     <t>ObservationDiscapacidadLE</t>
   </si>
   <si>
     <t>Discapacidad LE</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>null#101720-1</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
     <t>booleanĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
   </si>
   <si>
     <t>ObservationIndiceComorbilidadLE</t>
@@ -244,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -328,22 +340,22 @@
         <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>13</v>
-      </c>
       <c r="F3" t="s" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -357,28 +369,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>13</v>
-      </c>
       <c r="D4" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>15</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -392,28 +404,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -422,6 +434,41 @@
         <v>13</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>13</v>
       </c>
     </row>
